--- a/biology/Médecine/Charles_Marie_Richard/Charles_Marie_Richard.xlsx
+++ b/biology/Médecine/Charles_Marie_Richard/Charles_Marie_Richard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Marie Richard de La Vergne est un médecin et homme politique français né le 29 avril 1766 à Montaigu et mort le 15 mars 1829 à Nantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Marie Richard de La Vergne est le fils de Louis Richard, sieur de la Vergne, docteur en médecine à Montaigu et trésorier des Marches communes de Poitou et de Bretagne, qui est élu député du tiers-état des Marches aux États généraux de 1789, mais qui donna sa démission deux jours après, et de Magdeleine Françoise Gautreau. Neveu de Pierre Richard de La Vergne, il est l'oncle du cardinal François Richard de La Vergne.
 Docteur en médecine de l'université de Montpellier, officier municipal de Montaigu, il devient médecin de l'armée de Charette en 1793.
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Charles Marie Richard », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]
 Jacques Léonard, Les Médecins de l'Ouest au XIXe siècle. Volume 3, 1978
